--- a/know_topic.xlsx
+++ b/know_topic.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="15015" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="话题列表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="topic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
-  <si>
-    <t>编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>话题</t>
   </si>
   <si>
-    <t>简介</t>
+    <t>话题简介</t>
   </si>
   <si>
     <t>链接</t>
@@ -193,13 +193,13 @@
     <t>https://www.zhihu.com/topic/19634312</t>
   </si>
   <si>
-    <t>实况足球</t>
-  </si>
-  <si>
-    <t>实况足球（或称为胜利十一人，日文：ウイニングイレブン、英文：W…</t>
-  </si>
-  <si>
-    <t>https://www.zhihu.com/topic/19593845</t>
+    <t>topic_items</t>
+  </si>
+  <si>
+    <t>meaning_items</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.comhref_items</t>
   </si>
 </sst>
 </file>
@@ -207,24 +207,359 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,17 +567,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -530,18 +1060,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
+    <col min="5" max="8" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -558,8 +1092,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -567,13 +1101,13 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -586,8 +1120,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -600,8 +1134,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -614,8 +1148,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -628,8 +1162,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -642,20 +1176,19 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -668,8 +1201,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -682,8 +1215,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -696,8 +1229,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -710,8 +1243,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -724,20 +1257,19 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -750,8 +1282,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -764,8 +1296,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -778,8 +1310,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18">
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -792,8 +1324,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19">
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -806,8 +1338,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -820,20 +1352,543 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="n">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.zhihu.com/topic/19550994"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://www.zhihu.com/topic/19551648"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>